--- a/natmiOut/YoungD0/LR-pairs_lrc2p/C3-Cd46.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/C3-Cd46.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Cd46</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>143.733557270241</v>
+        <v>34.739995</v>
       </c>
       <c r="H2">
-        <v>143.733557270241</v>
+        <v>104.219985</v>
       </c>
       <c r="I2">
-        <v>0.99757067424708</v>
+        <v>0.1827267341390226</v>
       </c>
       <c r="J2">
-        <v>0.99757067424708</v>
+        <v>0.1827267341390226</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.84961309101663</v>
+        <v>10.876357</v>
       </c>
       <c r="N2">
-        <v>8.84961309101663</v>
+        <v>32.629071</v>
       </c>
       <c r="O2">
-        <v>0.5748159637193473</v>
+        <v>0.6153167079818751</v>
       </c>
       <c r="P2">
-        <v>0.5748159637193473</v>
+        <v>0.615316707981875</v>
       </c>
       <c r="Q2">
-        <v>1271.986370037113</v>
+        <v>377.8445877982149</v>
       </c>
       <c r="R2">
-        <v>1271.986370037113</v>
+        <v>3400.601290183934</v>
       </c>
       <c r="S2">
-        <v>0.5734195484954944</v>
+        <v>0.1124348125107027</v>
       </c>
       <c r="T2">
-        <v>0.5734195484954944</v>
+        <v>0.1124348125107027</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>143.733557270241</v>
+        <v>34.739995</v>
       </c>
       <c r="H3">
-        <v>143.733557270241</v>
+        <v>104.219985</v>
       </c>
       <c r="I3">
-        <v>0.99757067424708</v>
+        <v>0.1827267341390226</v>
       </c>
       <c r="J3">
-        <v>0.99757067424708</v>
+        <v>0.1827267341390226</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.23970773589604</v>
+        <v>4.349453666666666</v>
       </c>
       <c r="N3">
-        <v>4.23970773589604</v>
+        <v>13.048361</v>
       </c>
       <c r="O3">
-        <v>0.2753851115334455</v>
+        <v>0.2460650667951621</v>
       </c>
       <c r="P3">
-        <v>0.2753851115334455</v>
+        <v>0.2460650667951621</v>
       </c>
       <c r="Q3">
-        <v>609.3882746664973</v>
+        <v>151.0999986327317</v>
       </c>
       <c r="R3">
-        <v>609.3882746664973</v>
+        <v>1359.899987694585</v>
       </c>
       <c r="S3">
-        <v>0.2747161113900266</v>
+        <v>0.04496266604118043</v>
       </c>
       <c r="T3">
-        <v>0.2747161113900266</v>
+        <v>0.04496266604118043</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>143.733557270241</v>
+        <v>34.739995</v>
       </c>
       <c r="H4">
-        <v>143.733557270241</v>
+        <v>104.219985</v>
       </c>
       <c r="I4">
-        <v>0.99757067424708</v>
+        <v>0.1827267341390226</v>
       </c>
       <c r="J4">
-        <v>0.99757067424708</v>
+        <v>0.1827267341390226</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.3062381860194</v>
+        <v>2.45022</v>
       </c>
       <c r="N4">
-        <v>2.3062381860194</v>
+        <v>7.35066</v>
       </c>
       <c r="O4">
-        <v>0.1497989247472073</v>
+        <v>0.138618225222963</v>
       </c>
       <c r="P4">
-        <v>0.1497989247472073</v>
+        <v>0.138618225222963</v>
       </c>
       <c r="Q4">
-        <v>331.4838183890361</v>
+        <v>85.1206305489</v>
       </c>
       <c r="R4">
-        <v>331.4838183890361</v>
+        <v>766.0856749400999</v>
       </c>
       <c r="S4">
-        <v>0.1494350143615591</v>
+        <v>0.02532925558713952</v>
       </c>
       <c r="T4">
-        <v>0.1494350143615591</v>
+        <v>0.02532925558713952</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.350025959312558</v>
+        <v>154.8642143333334</v>
       </c>
       <c r="H5">
-        <v>0.350025959312558</v>
+        <v>464.5926430000001</v>
       </c>
       <c r="I5">
-        <v>0.002429325752920079</v>
+        <v>0.8145606273154508</v>
       </c>
       <c r="J5">
-        <v>0.002429325752920079</v>
+        <v>0.8145606273154508</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.84961309101663</v>
+        <v>10.876357</v>
       </c>
       <c r="N5">
-        <v>8.84961309101663</v>
+        <v>32.629071</v>
       </c>
       <c r="O5">
-        <v>0.5748159637193473</v>
+        <v>0.6153167079818751</v>
       </c>
       <c r="P5">
-        <v>0.5748159637193473</v>
+        <v>0.615316707981875</v>
       </c>
       <c r="Q5">
-        <v>3.097594311728067</v>
+        <v>1684.35848161385</v>
       </c>
       <c r="R5">
-        <v>3.097594311728067</v>
+        <v>15159.22633452465</v>
       </c>
       <c r="S5">
-        <v>0.001396415223852984</v>
+        <v>0.5012127636513942</v>
       </c>
       <c r="T5">
-        <v>0.001396415223852984</v>
+        <v>0.5012127636513941</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.350025959312558</v>
+        <v>154.8642143333334</v>
       </c>
       <c r="H6">
-        <v>0.350025959312558</v>
+        <v>464.5926430000001</v>
       </c>
       <c r="I6">
-        <v>0.002429325752920079</v>
+        <v>0.8145606273154508</v>
       </c>
       <c r="J6">
-        <v>0.002429325752920079</v>
+        <v>0.8145606273154508</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.23970773589604</v>
+        <v>4.349453666666666</v>
       </c>
       <c r="N6">
-        <v>4.23970773589604</v>
+        <v>13.048361</v>
       </c>
       <c r="O6">
-        <v>0.2753851115334455</v>
+        <v>0.2460650667951621</v>
       </c>
       <c r="P6">
-        <v>0.2753851115334455</v>
+        <v>0.2460650667951621</v>
       </c>
       <c r="Q6">
-        <v>1.484007767461885</v>
+        <v>673.5747248675693</v>
       </c>
       <c r="R6">
-        <v>1.484007767461885</v>
+        <v>6062.172523808124</v>
       </c>
       <c r="S6">
-        <v>0.0006690001434189673</v>
+        <v>0.2004349151690856</v>
       </c>
       <c r="T6">
-        <v>0.0006690001434189673</v>
+        <v>0.2004349151690855</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>154.8642143333334</v>
+      </c>
+      <c r="H7">
+        <v>464.5926430000001</v>
+      </c>
+      <c r="I7">
+        <v>0.8145606273154508</v>
+      </c>
+      <c r="J7">
+        <v>0.8145606273154508</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.45022</v>
+      </c>
+      <c r="N7">
+        <v>7.35066</v>
+      </c>
+      <c r="O7">
+        <v>0.138618225222963</v>
+      </c>
+      <c r="P7">
+        <v>0.138618225222963</v>
+      </c>
+      <c r="Q7">
+        <v>379.4513952438201</v>
+      </c>
+      <c r="R7">
+        <v>3415.06255719438</v>
+      </c>
+      <c r="S7">
+        <v>0.1129129484949712</v>
+      </c>
+      <c r="T7">
+        <v>0.1129129484949711</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.5157266666666667</v>
+      </c>
+      <c r="H8">
+        <v>1.54718</v>
+      </c>
+      <c r="I8">
+        <v>0.002712638545526686</v>
+      </c>
+      <c r="J8">
+        <v>0.002712638545526686</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>10.876357</v>
+      </c>
+      <c r="N8">
+        <v>32.629071</v>
+      </c>
+      <c r="O8">
+        <v>0.6153167079818751</v>
+      </c>
+      <c r="P8">
+        <v>0.615316707981875</v>
+      </c>
+      <c r="Q8">
+        <v>5.609227341086666</v>
+      </c>
+      <c r="R8">
+        <v>50.48304606977999</v>
+      </c>
+      <c r="S8">
+        <v>0.001669131819778222</v>
+      </c>
+      <c r="T8">
+        <v>0.001669131819778222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.350025959312558</v>
-      </c>
-      <c r="H7">
-        <v>0.350025959312558</v>
-      </c>
-      <c r="I7">
-        <v>0.002429325752920079</v>
-      </c>
-      <c r="J7">
-        <v>0.002429325752920079</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>2.3062381860194</v>
-      </c>
-      <c r="N7">
-        <v>2.3062381860194</v>
-      </c>
-      <c r="O7">
-        <v>0.1497989247472073</v>
-      </c>
-      <c r="P7">
-        <v>0.1497989247472073</v>
-      </c>
-      <c r="Q7">
-        <v>0.807243233464694</v>
-      </c>
-      <c r="R7">
-        <v>0.807243233464694</v>
-      </c>
-      <c r="S7">
-        <v>0.0003639103856481275</v>
-      </c>
-      <c r="T7">
-        <v>0.0003639103856481275</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.5157266666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.54718</v>
+      </c>
+      <c r="I9">
+        <v>0.002712638545526686</v>
+      </c>
+      <c r="J9">
+        <v>0.002712638545526686</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.349453666666666</v>
+      </c>
+      <c r="N9">
+        <v>13.048361</v>
+      </c>
+      <c r="O9">
+        <v>0.2460650667951621</v>
+      </c>
+      <c r="P9">
+        <v>0.2460650667951621</v>
+      </c>
+      <c r="Q9">
+        <v>2.243129241331111</v>
+      </c>
+      <c r="R9">
+        <v>20.18816317198</v>
+      </c>
+      <c r="S9">
+        <v>0.0006674855848961554</v>
+      </c>
+      <c r="T9">
+        <v>0.0006674855848961554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.5157266666666667</v>
+      </c>
+      <c r="H10">
+        <v>1.54718</v>
+      </c>
+      <c r="I10">
+        <v>0.002712638545526686</v>
+      </c>
+      <c r="J10">
+        <v>0.002712638545526686</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.45022</v>
+      </c>
+      <c r="N10">
+        <v>7.35066</v>
+      </c>
+      <c r="O10">
+        <v>0.138618225222963</v>
+      </c>
+      <c r="P10">
+        <v>0.138618225222963</v>
+      </c>
+      <c r="Q10">
+        <v>1.2636437932</v>
+      </c>
+      <c r="R10">
+        <v>11.3727941388</v>
+      </c>
+      <c r="S10">
+        <v>0.0003760211408523089</v>
+      </c>
+      <c r="T10">
+        <v>0.0003760211408523089</v>
       </c>
     </row>
   </sheetData>
